--- a/output/06-overall-quality-factor.xlsx
+++ b/output/06-overall-quality-factor.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet name="descriptives" sheetId="1" r:id="rId1"/>
     <sheet name="coefficients" sheetId="2" r:id="rId2"/>
+    <sheet name="nr_studies" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -410,22 +411,22 @@
         <v>82</v>
       </c>
       <c r="C2">
-        <v>742</v>
+        <v>845</v>
       </c>
       <c r="D2">
-        <v>0.008080545804310781</v>
+        <v>0.008030863400722361</v>
       </c>
       <c r="E2">
-        <v>0.05356518902682018</v>
+        <v>0.05060100631521103</v>
       </c>
       <c r="F2">
-        <v>96.92857048644345</v>
+        <v>97.73350421127832</v>
       </c>
       <c r="G2">
-        <v>84.22313748758916</v>
+        <v>84.34685245008768</v>
       </c>
       <c r="H2">
-        <v>12.70543299885428</v>
+        <v>13.38665176119064</v>
       </c>
     </row>
     <row r="3">
@@ -438,22 +439,22 @@
         <v>51</v>
       </c>
       <c r="C3">
-        <v>385</v>
+        <v>438</v>
       </c>
       <c r="D3">
-        <v>0.005721570855293769</v>
+        <v>0.003975373526203995</v>
       </c>
       <c r="E3">
-        <v>0.05625150462429183</v>
+        <v>0.05301294003157205</v>
       </c>
       <c r="F3">
-        <v>95.25252528696967</v>
+        <v>95.10650554477499</v>
       </c>
       <c r="G3">
-        <v>86.45847935076979</v>
+        <v>88.47209472071785</v>
       </c>
       <c r="H3">
-        <v>8.794045936199884</v>
+        <v>6.634410824057147</v>
       </c>
     </row>
   </sheetData>
@@ -518,19 +519,19 @@
         </is>
       </c>
       <c r="C2">
-        <v>9.597510381277063</v>
+        <v>8.179405004212979</v>
       </c>
       <c r="D2">
-        <v>0.7640730426053066</v>
+        <v>0.7649727984206065</v>
       </c>
       <c r="E2">
         <v>4</v>
       </c>
       <c r="F2">
-        <v>9.715799979487539</v>
+        <v>9.764479940363771</v>
       </c>
       <c r="G2">
-        <v>0.002057098444815533</v>
+        <v>0.003630986766515545</v>
       </c>
     </row>
     <row r="3">
@@ -545,19 +546,216 @@
         </is>
       </c>
       <c r="C3">
-        <v>0.1139934240714795</v>
+        <v>0.1962197121711471</v>
       </c>
       <c r="D3">
-        <v>0.8359738875340053</v>
+        <v>0.8333369649535934</v>
       </c>
       <c r="E3">
         <v>3</v>
       </c>
       <c r="F3">
-        <v>10.19318052431824</v>
+        <v>10.00026148235636</v>
       </c>
       <c r="G3">
-        <v>0.9499335686651118</v>
+        <v>0.8965894059026196</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>outcome</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>quality_score_out_of_5</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>n_effect_sizes</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>k_studies</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C2">
+        <v>300</v>
+      </c>
+      <c r="D2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C3">
+        <v>393</v>
+      </c>
+      <c r="D3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C4">
+        <v>74</v>
+      </c>
+      <c r="D4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C5">
+        <v>69</v>
+      </c>
+      <c r="D5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C6">
+        <v>9</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C7">
+        <v>149</v>
+      </c>
+      <c r="D7">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C8">
+        <v>195</v>
+      </c>
+      <c r="D8">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C9">
+        <v>41</v>
+      </c>
+      <c r="D9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C10">
+        <v>53</v>
+      </c>
+      <c r="D10">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
